--- a/download_pdf_annual_report_2/aim_data.xlsx
+++ b/download_pdf_annual_report_2/aim_data.xlsx
@@ -514,12 +514,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>云南白药</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
